--- a/media/uploads/Excel_4.xlsx
+++ b/media/uploads/Excel_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagul\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE7B30D-4F24-4FBA-BCDD-8EBFAEACCFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FAE0AF-F2E4-4D6E-9B5A-C6DF79035284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0EA16A49-1561-4912-B50B-BA871B26EBB1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>msg1</t>
   </si>
@@ -66,126 +66,6 @@
   </si>
   <si>
     <t>msg10</t>
-  </si>
-  <si>
-    <t>msg11</t>
-  </si>
-  <si>
-    <t>msg12</t>
-  </si>
-  <si>
-    <t>msg13</t>
-  </si>
-  <si>
-    <t>msg14</t>
-  </si>
-  <si>
-    <t>msg15</t>
-  </si>
-  <si>
-    <t>msg16</t>
-  </si>
-  <si>
-    <t>msg17</t>
-  </si>
-  <si>
-    <t>msg18</t>
-  </si>
-  <si>
-    <t>msg19</t>
-  </si>
-  <si>
-    <t>msg20</t>
-  </si>
-  <si>
-    <t>msg21</t>
-  </si>
-  <si>
-    <t>msg22</t>
-  </si>
-  <si>
-    <t>msg23</t>
-  </si>
-  <si>
-    <t>msg24</t>
-  </si>
-  <si>
-    <t>msg25</t>
-  </si>
-  <si>
-    <t>msg26</t>
-  </si>
-  <si>
-    <t>msg27</t>
-  </si>
-  <si>
-    <t>msg28</t>
-  </si>
-  <si>
-    <t>msg29</t>
-  </si>
-  <si>
-    <t>msg30</t>
-  </si>
-  <si>
-    <t>msg31</t>
-  </si>
-  <si>
-    <t>msg32</t>
-  </si>
-  <si>
-    <t>msg33</t>
-  </si>
-  <si>
-    <t>msg34</t>
-  </si>
-  <si>
-    <t>msg35</t>
-  </si>
-  <si>
-    <t>msg36</t>
-  </si>
-  <si>
-    <t>msg37</t>
-  </si>
-  <si>
-    <t>msg38</t>
-  </si>
-  <si>
-    <t>msg39</t>
-  </si>
-  <si>
-    <t>msg40</t>
-  </si>
-  <si>
-    <t>msg41</t>
-  </si>
-  <si>
-    <t>msg42</t>
-  </si>
-  <si>
-    <t>msg43</t>
-  </si>
-  <si>
-    <t>msg44</t>
-  </si>
-  <si>
-    <t>msg45</t>
-  </si>
-  <si>
-    <t>msg46</t>
-  </si>
-  <si>
-    <t>msg47</t>
-  </si>
-  <si>
-    <t>msg48</t>
-  </si>
-  <si>
-    <t>msg49</t>
-  </si>
-  <si>
-    <t>msg50</t>
   </si>
 </sst>
 </file>
@@ -563,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78AD9BD-C035-4D54-B4BA-12267A10F3B7}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,7 +457,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>919894107264</v>
+        <v>917010456525</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -585,7 +465,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>919894107264</v>
+        <v>917010456525</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -593,7 +473,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>919894107264</v>
+        <v>917010456525</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -601,7 +481,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>919894107264</v>
+        <v>917010456525</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -609,7 +489,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>919894107264</v>
+        <v>917010456525</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -617,7 +497,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>919894107264</v>
+        <v>917010456525</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -625,7 +505,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>919894107264</v>
+        <v>917010456525</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -633,7 +513,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>919894107264</v>
+        <v>917010456525</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -641,7 +521,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>919894107264</v>
+        <v>917010456525</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -649,330 +529,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>919894107264</v>
+        <v>917010456525</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>919894107264</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>919894107264</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>919894107264</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>919894107264</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>919894107264</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>919894107264</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>919894107264</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>919894107264</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>919894107264</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>919894107264</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>919894107264</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>919894107264</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>919894107264</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>919894107264</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>919894107264</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>919894107264</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>919894107264</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>919894107264</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>919894107264</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>919894107264</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>919894107264</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>919894107264</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>919894107264</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>919894107264</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>919894107264</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>919894107264</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>919894107264</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>919894107264</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>919894107264</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>919894107264</v>
-      </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>919894107264</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>919894107264</v>
-      </c>
-      <c r="B42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>919894107264</v>
-      </c>
-      <c r="B43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>919894107264</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>919894107264</v>
-      </c>
-      <c r="B45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>919894107264</v>
-      </c>
-      <c r="B46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>919894107264</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>919894107264</v>
-      </c>
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>919894107264</v>
-      </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>919894107264</v>
-      </c>
-      <c r="B50" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -982,15 +542,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010028A35922D9062449BBD1ED47A172D3B0" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="20923a9145197f59d62c404a302f864b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="25f8ee31-97c5-4c94-80c3-764537ab3f84" xmlns:ns4="aea6cfdb-8c38-4a8f-8db2-6031ff9fca1d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c07710bf92a7ea2e3d5029385180da44" ns3:_="" ns4:_="">
     <xsd:import namespace="25f8ee31-97c5-4c94-80c3-764537ab3f84"/>
@@ -1217,6 +768,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1226,14 +786,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13A5A8FD-2AA4-4C8A-8356-E4594ADF65E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8218CB8-EAF3-4A89-BC80-C9BCAC0CD998}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1252,6 +804,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{13A5A8FD-2AA4-4C8A-8356-E4594ADF65E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB7AD56D-BAA3-4844-ADA1-AC795889622A}">
   <ds:schemaRefs>
